--- a/ValueSet-uscore-common-sdoh-assessments.xlsx
+++ b/ValueSet-uscore-common-sdoh-assessments.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (mailto:ehaas@healthedatainc.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
